--- a/data/trans_orig/P36B06-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P36B06-Clase-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>8333</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3761</v>
+        <v>3302</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19703</v>
+        <v>19180</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01758904636216326</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007938277307913388</v>
+        <v>0.006969835161906444</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04158815120166723</v>
+        <v>0.04048427868622629</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7019</v>
+        <v>7118</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.006575580879329516</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02288746690838468</v>
+        <v>0.02320881598052785</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -785,19 +785,19 @@
         <v>10350</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4375</v>
+        <v>3968</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20508</v>
+        <v>20593</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01326130684831408</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.005605804658113645</v>
+        <v>0.005084252884079622</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02627729261338969</v>
+        <v>0.02638582648695081</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>21141</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>12776</v>
+        <v>12972</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>31335</v>
+        <v>32254</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04462147654399317</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02696724253730247</v>
+        <v>0.02737951650390764</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06613815655330728</v>
+        <v>0.06807912691117735</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -835,19 +835,19 @@
         <v>9407</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4316</v>
+        <v>4036</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>18166</v>
+        <v>16158</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03067350313301501</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01407384998472964</v>
+        <v>0.01315953954824041</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05923461406870786</v>
+        <v>0.05268716057383958</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>29</v>
@@ -856,19 +856,19 @@
         <v>30548</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>20997</v>
+        <v>21465</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>42421</v>
+        <v>44134</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.039140622605431</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02690382476186219</v>
+        <v>0.02750253019427285</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05435454957363652</v>
+        <v>0.05654902573492829</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>64333</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>49684</v>
+        <v>49476</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>80781</v>
+        <v>80688</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1357881389714116</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.104867891757383</v>
+        <v>0.1044283690228006</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1705047191643412</v>
+        <v>0.1703083883276345</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>36</v>
@@ -906,19 +906,19 @@
         <v>36441</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>26398</v>
+        <v>26409</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>49929</v>
+        <v>49160</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1188254304108212</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08607626634982914</v>
+        <v>0.08611388746883292</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1628042375636156</v>
+        <v>0.1602985929804354</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>98</v>
@@ -927,19 +927,19 @@
         <v>100775</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>83507</v>
+        <v>82261</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>119866</v>
+        <v>119600</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1291226453341912</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1069979387376723</v>
+        <v>0.1054011072478646</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1535845299390783</v>
+        <v>0.1532436734074159</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>133151</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>113067</v>
+        <v>114606</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>153181</v>
+        <v>155032</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2810425495260793</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2386515866392247</v>
+        <v>0.2418994704897178</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3233193383026949</v>
+        <v>0.3272274098670808</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>85</v>
@@ -977,19 +977,19 @@
         <v>87726</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>73735</v>
+        <v>73084</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>105831</v>
+        <v>104483</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2860512948619526</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.240430435264479</v>
+        <v>0.2383081293843</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3450875332950085</v>
+        <v>0.3406892829083615</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>214</v>
@@ -998,19 +998,19 @@
         <v>220878</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>196929</v>
+        <v>198042</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>247082</v>
+        <v>246117</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2830107352110168</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2523257153142973</v>
+        <v>0.2537516998578047</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3165869293355936</v>
+        <v>0.3153493960167794</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>246818</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>224579</v>
+        <v>225444</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>268775</v>
+        <v>268378</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5209587885963527</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4740184551805556</v>
+        <v>0.4758445526345751</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5673029236552064</v>
+        <v>0.5664656598234641</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>166</v>
@@ -1048,19 +1048,19 @@
         <v>171089</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>150087</v>
+        <v>153694</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>186846</v>
+        <v>189611</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5578741907148816</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.489393006444644</v>
+        <v>0.5011527997060707</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6092526055215913</v>
+        <v>0.6182693977547991</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>404</v>
@@ -1069,19 +1069,19 @@
         <v>417907</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>388058</v>
+        <v>390326</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>448005</v>
+        <v>447108</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5354646900010469</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4972185059113896</v>
+        <v>0.5001252451053031</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5740296702844351</v>
+        <v>0.5728796650769012</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>6508</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2874</v>
+        <v>2723</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14934</v>
+        <v>14381</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01777794130939634</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0078500215021106</v>
+        <v>0.007439410113473956</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04079726167607229</v>
+        <v>0.03928568146149736</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -1194,19 +1194,19 @@
         <v>13483</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7463</v>
+        <v>7472</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21162</v>
+        <v>21711</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03625686794711716</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.020068595073314</v>
+        <v>0.02009359079854104</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05690825373934324</v>
+        <v>0.05838479284020317</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>20</v>
@@ -1215,19 +1215,19 @@
         <v>19990</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13160</v>
+        <v>11896</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>30638</v>
+        <v>29716</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02709018492655673</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01783363335048786</v>
+        <v>0.01612142940538203</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04151908528502461</v>
+        <v>0.04026981084974507</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>19385</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>12218</v>
+        <v>12669</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>30293</v>
+        <v>30309</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05295585360841901</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03337769822837426</v>
+        <v>0.03460890283738527</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08275525061113453</v>
+        <v>0.08280047357274228</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>13</v>
@@ -1265,19 +1265,19 @@
         <v>13081</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>7112</v>
+        <v>7789</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>22736</v>
+        <v>22145</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03517577642710504</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01912533212078043</v>
+        <v>0.02094455570474432</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.06113942102914322</v>
+        <v>0.05955063662519704</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>32</v>
@@ -1286,19 +1286,19 @@
         <v>32465</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>22037</v>
+        <v>22822</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>46054</v>
+        <v>46015</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04399578717759456</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02986442907627013</v>
+        <v>0.03092723725175062</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.06241034977161809</v>
+        <v>0.06235745613502421</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>51573</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>39860</v>
+        <v>39125</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>66587</v>
+        <v>66102</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1408906759564762</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1088922175079064</v>
+        <v>0.1068834313246809</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1819067444846353</v>
+        <v>0.1805799968394954</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>55</v>
@@ -1336,19 +1336,19 @@
         <v>55225</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>42748</v>
+        <v>41418</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>70235</v>
+        <v>69049</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1485070283883412</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.114955928645434</v>
+        <v>0.1113783671952087</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1888730903917396</v>
+        <v>0.1856819015331225</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>105</v>
@@ -1357,19 +1357,19 @@
         <v>106798</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>87340</v>
+        <v>87753</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>127618</v>
+        <v>125641</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1447288496074771</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1183608532562765</v>
+        <v>0.1189200649231477</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1729441553724654</v>
+        <v>0.1702643868199521</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>105812</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>90006</v>
+        <v>88999</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>124138</v>
+        <v>126167</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2890632728740413</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2458833663372117</v>
+        <v>0.2431316659295396</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3391263709978383</v>
+        <v>0.3446682466344151</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>100</v>
@@ -1407,19 +1407,19 @@
         <v>101103</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>84906</v>
+        <v>83450</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>118716</v>
+        <v>118681</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.271881084423074</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2283236327244507</v>
+        <v>0.2244106974150661</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3192441068034906</v>
+        <v>0.319151865879522</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>199</v>
@@ -1428,19 +1428,19 @@
         <v>206915</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>183033</v>
+        <v>182664</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>229798</v>
+        <v>232419</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2804045056269897</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2480405498380252</v>
+        <v>0.247539897618259</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3114142310134755</v>
+        <v>0.3149664108925831</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>182774</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>163306</v>
+        <v>163865</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>201805</v>
+        <v>201045</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4993122562516672</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4461281037804889</v>
+        <v>0.4476558875056217</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.551301641930567</v>
+        <v>0.5492246446044249</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>181</v>
@@ -1478,19 +1478,19 @@
         <v>188974</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>169167</v>
+        <v>168898</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>207085</v>
+        <v>207521</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5081792428143626</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.454915694615634</v>
+        <v>0.454191039685153</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5568826158077919</v>
+        <v>0.5580538093111971</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>356</v>
@@ -1499,19 +1499,19 @@
         <v>371748</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>346591</v>
+        <v>342819</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>400571</v>
+        <v>398114</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5037806726613819</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4696884609020562</v>
+        <v>0.4645762320801109</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5428406613039227</v>
+        <v>0.5395105756610302</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>12887</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7015</v>
+        <v>7027</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20902</v>
+        <v>21033</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02375974123990391</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01293425287455642</v>
+        <v>0.01295524043907282</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03853746652881931</v>
+        <v>0.0387783782883682</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -1624,19 +1624,19 @@
         <v>6596</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3075</v>
+        <v>2237</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13528</v>
+        <v>13170</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03931497667200695</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01832438031661861</v>
+        <v>0.01333175408895984</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08062793660404632</v>
+        <v>0.07849661340684881</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>20</v>
@@ -1645,19 +1645,19 @@
         <v>19483</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>12747</v>
+        <v>12561</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>29653</v>
+        <v>29077</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02743475340881784</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01794941919780876</v>
+        <v>0.01768769057039535</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04175535792976524</v>
+        <v>0.04094299388363961</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>31422</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>22061</v>
+        <v>21191</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>44801</v>
+        <v>43581</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05793297202252192</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04067432392054977</v>
+        <v>0.03907019921397609</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08259903841424296</v>
+        <v>0.08035025592485959</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -1695,19 +1695,19 @@
         <v>3975</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>965</v>
+        <v>975</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11830</v>
+        <v>12700</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02369225380535641</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0057519456327517</v>
+        <v>0.005811437540712207</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07050832264863936</v>
+        <v>0.07569434500317984</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>35</v>
@@ -1716,19 +1716,19 @@
         <v>35397</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>25590</v>
+        <v>25234</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>49249</v>
+        <v>49898</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04984340907956984</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03603411957842727</v>
+        <v>0.03553288751989716</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06934806345935013</v>
+        <v>0.07026258515042549</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>82269</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>66622</v>
+        <v>66113</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>101754</v>
+        <v>98644</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1516788906900201</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1228301248188065</v>
+        <v>0.1218919070586838</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1876031660797321</v>
+        <v>0.1818694109645655</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>20</v>
@@ -1766,19 +1766,19 @@
         <v>20712</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>12957</v>
+        <v>13351</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>31328</v>
+        <v>30300</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1234454733441612</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.07722468926998494</v>
+        <v>0.07957247407629514</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1867190715271039</v>
+        <v>0.1805888367443545</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>102</v>
@@ -1787,19 +1787,19 @@
         <v>102981</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>84605</v>
+        <v>86629</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>121415</v>
+        <v>123138</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1450085864847929</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1191327335770518</v>
+        <v>0.1219831073503022</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1709663898601972</v>
+        <v>0.173391746205477</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>162222</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>141107</v>
+        <v>141160</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>187368</v>
+        <v>183296</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2990884373696917</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2601578979691654</v>
+        <v>0.2602563584555602</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3454495141913175</v>
+        <v>0.3379421777543733</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>46</v>
@@ -1837,19 +1837,19 @@
         <v>45756</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>35508</v>
+        <v>35142</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>57739</v>
+        <v>57179</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.272710151549804</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2116321323036674</v>
+        <v>0.2094523650092253</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3441306746166601</v>
+        <v>0.3407947248288458</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>200</v>
@@ -1858,19 +1858,19 @@
         <v>207978</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>184441</v>
+        <v>184684</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>232436</v>
+        <v>232668</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.292856418458354</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2597130713271123</v>
+        <v>0.2600553571107541</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3272955398044924</v>
+        <v>0.3276223388948262</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>253589</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>231052</v>
+        <v>230490</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>276571</v>
+        <v>275613</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4675399586778623</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4259885852948008</v>
+        <v>0.4249535282879901</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5099120436635415</v>
+        <v>0.5081458608000775</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>89</v>
@@ -1908,19 +1908,19 @@
         <v>90743</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>77254</v>
+        <v>77666</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>102909</v>
+        <v>103012</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5408371446286714</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4604441568898672</v>
+        <v>0.4628973840259443</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6133521415637112</v>
+        <v>0.6139606310892587</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>339</v>
@@ -1929,19 +1929,19 @@
         <v>344331</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>318111</v>
+        <v>318483</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>373197</v>
+        <v>369944</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4848568325684655</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4479356703339535</v>
+        <v>0.4484591872434396</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5255027386827372</v>
+        <v>0.5209227160724742</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>21293</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>13728</v>
+        <v>13011</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>32185</v>
+        <v>32979</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01720775001535336</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0110944152808453</v>
+        <v>0.01051456859025883</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02601067654998876</v>
+        <v>0.02665215874613265</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>11</v>
@@ -2054,19 +2054,19 @@
         <v>11511</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5801</v>
+        <v>5907</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>20275</v>
+        <v>21771</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01611555103761939</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.008121781085904625</v>
+        <v>0.008269289535600598</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02838549367146331</v>
+        <v>0.03047982614761752</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>31</v>
@@ -2075,19 +2075,19 @@
         <v>32804</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>23024</v>
+        <v>22859</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>47324</v>
+        <v>47381</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01680802003735897</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01179698979906586</v>
+        <v>0.01171238036302566</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02424783688855085</v>
+        <v>0.0242768945940943</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>66753</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>51588</v>
+        <v>51748</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>84914</v>
+        <v>85832</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.05394651345302666</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.04169076708776207</v>
+        <v>0.0418207507451144</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.06862396619695413</v>
+        <v>0.06936530288290753</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>33</v>
@@ -2125,19 +2125,19 @@
         <v>34453</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>25096</v>
+        <v>24439</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>49246</v>
+        <v>46332</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.04823479490306356</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03513410809077716</v>
+        <v>0.03421466664018856</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.06894497307011874</v>
+        <v>0.06486554717830512</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>98</v>
@@ -2146,19 +2146,19 @@
         <v>101206</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>83245</v>
+        <v>82239</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>125296</v>
+        <v>121707</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.05185610211147437</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.04265297892671602</v>
+        <v>0.04213778436725804</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.06419926303395543</v>
+        <v>0.06236050434868896</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>192665</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>165863</v>
+        <v>168221</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>216821</v>
+        <v>219747</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1557033874660841</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1340431227389823</v>
+        <v>0.1359483999040296</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1752249111213237</v>
+        <v>0.1775896005470022</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>87</v>
@@ -2196,19 +2196,19 @@
         <v>88007</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>71956</v>
+        <v>73078</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>106785</v>
+        <v>108106</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1232098133636447</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1007379307659615</v>
+        <v>0.1023086504984379</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1494995676711186</v>
+        <v>0.1513488823925506</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>276</v>
@@ -2217,19 +2217,19 @@
         <v>280672</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>249277</v>
+        <v>250885</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>314212</v>
+        <v>311563</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1438111810772122</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1277249068026138</v>
+        <v>0.1285489988680768</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1609963901691056</v>
+        <v>0.159639152630785</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>340061</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>311386</v>
+        <v>309452</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>372100</v>
+        <v>374030</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2748223874383341</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2516480083611676</v>
+        <v>0.2500850556675169</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3007143839477577</v>
+        <v>0.3022743634970536</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>179</v>
@@ -2267,19 +2267,19 @@
         <v>184089</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>161105</v>
+        <v>161186</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>209822</v>
+        <v>209641</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2577248807371976</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2255468966011993</v>
+        <v>0.2256612390603191</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2937512351862703</v>
+        <v>0.2934978367981704</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>512</v>
@@ -2288,19 +2288,19 @@
         <v>524151</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>484561</v>
+        <v>488879</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>564717</v>
+        <v>566566</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2685649324171036</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2482800188861965</v>
+        <v>0.2504925875077578</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.289350343274601</v>
+        <v>0.2902976930874141</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>616614</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>580564</v>
+        <v>582143</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>651381</v>
+        <v>653508</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4983199616272018</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4691861262965978</v>
+        <v>0.4704619739442761</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5264172600812375</v>
+        <v>0.5281363079864828</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>384</v>
@@ -2338,19 +2338,19 @@
         <v>396225</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>370149</v>
+        <v>367979</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>425931</v>
+        <v>420991</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5547149599584748</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5182096620968889</v>
+        <v>0.5151711117981611</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5963040596061143</v>
+        <v>0.5893877590668396</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1000</v>
@@ -2359,19 +2359,19 @@
         <v>1012839</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>968712</v>
+        <v>971473</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1057746</v>
+        <v>1059433</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5189597643568509</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4963498633476504</v>
+        <v>0.4977646880552471</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5419690013875689</v>
+        <v>0.5428332825446038</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>12846</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>6514</v>
+        <v>6403</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>21897</v>
+        <v>21505</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0366442614889475</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01858251311408348</v>
+        <v>0.01826456084357196</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06246265593479817</v>
+        <v>0.06134646328093174</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>10</v>
@@ -2484,19 +2484,19 @@
         <v>10885</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>5878</v>
+        <v>5207</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>20426</v>
+        <v>19722</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0191736354414193</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01035436339501683</v>
+        <v>0.009171509635878256</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03598112002644064</v>
+        <v>0.03474124457477623</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>22</v>
@@ -2505,19 +2505,19 @@
         <v>23731</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>15449</v>
+        <v>15030</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>35878</v>
+        <v>34706</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02584332108545725</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01682498296288532</v>
+        <v>0.0163679813458065</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03907206673940315</v>
+        <v>0.03779554115593684</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>22423</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>14395</v>
+        <v>14342</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>33809</v>
+        <v>32635</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.06396492490484491</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04106291035533552</v>
+        <v>0.0409136056943737</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09644465549599722</v>
+        <v>0.09309605166807662</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>18</v>
@@ -2555,19 +2555,19 @@
         <v>19092</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>11273</v>
+        <v>11966</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>28569</v>
+        <v>30234</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03363138894419947</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01985773832459845</v>
+        <v>0.02107908093713472</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.05032508647417141</v>
+        <v>0.05325840612280102</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>40</v>
@@ -2576,19 +2576,19 @@
         <v>41516</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>30899</v>
+        <v>30910</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>54822</v>
+        <v>55298</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04521169229333161</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03365040837771091</v>
+        <v>0.0336616214991836</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.0597032718903962</v>
+        <v>0.06022159172961716</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>69268</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>54649</v>
+        <v>56090</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>84642</v>
+        <v>85337</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1975953008082721</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1558921634405425</v>
+        <v>0.1600037277110144</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2414505371281436</v>
+        <v>0.2434345782312436</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>78</v>
@@ -2626,19 +2626,19 @@
         <v>82647</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>64909</v>
+        <v>67217</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>100161</v>
+        <v>101540</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1455846686672206</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1143392842054212</v>
+        <v>0.1184035573777894</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1764354585604165</v>
+        <v>0.1788644450255404</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>146</v>
@@ -2647,19 +2647,19 @@
         <v>151915</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>127934</v>
+        <v>128553</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>175197</v>
+        <v>174035</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1654405436418664</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1393241080172391</v>
+        <v>0.139998688410777</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.190794751201708</v>
+        <v>0.1895291615124684</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>104016</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>86781</v>
+        <v>86440</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>122140</v>
+        <v>122325</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2967178276885176</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2475522616302247</v>
+        <v>0.2465798844972465</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3484183437000216</v>
+        <v>0.3489475822823526</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>146</v>
@@ -2697,19 +2697,19 @@
         <v>152160</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>133901</v>
+        <v>131758</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>174278</v>
+        <v>172418</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2680335301175186</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.23586923785212</v>
+        <v>0.2320945581797086</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3069938094893007</v>
+        <v>0.3037172007446742</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>245</v>
@@ -2718,19 +2718,19 @@
         <v>256176</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>230095</v>
+        <v>229074</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>284702</v>
+        <v>284443</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2789842108314288</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2505806649547352</v>
+        <v>0.2494685729358094</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3100493420986877</v>
+        <v>0.3097676631313243</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>142002</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>123491</v>
+        <v>122622</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>160254</v>
+        <v>159684</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4050776851094178</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.352273223286331</v>
+        <v>0.3497945758597752</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4571440584038428</v>
+        <v>0.455516639758544</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>286</v>
@@ -2768,19 +2768,19 @@
         <v>302907</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>279871</v>
+        <v>278714</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>326513</v>
+        <v>326737</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.5335767768296421</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4929977613783914</v>
+        <v>0.4909596176217716</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5751579882150563</v>
+        <v>0.5755536825171388</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>425</v>
@@ -2789,19 +2789,19 @@
         <v>444909</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>411135</v>
+        <v>413106</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>475362</v>
+        <v>474423</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.484520232147916</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.447738750297672</v>
+        <v>0.4498851228433399</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5176837806871168</v>
+        <v>0.5166617758151796</v>
       </c>
     </row>
     <row r="33">
@@ -2893,19 +2893,19 @@
         <v>12240</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>6994</v>
+        <v>6817</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>20987</v>
+        <v>19996</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.04118972136900043</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02353559929743218</v>
+        <v>0.02294007672991229</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.07062440997644666</v>
+        <v>0.06728998878945522</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>19</v>
@@ -2914,19 +2914,19 @@
         <v>18558</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>11310</v>
+        <v>11277</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>28017</v>
+        <v>27250</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01487243678242863</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.009063989164913112</v>
+        <v>0.009037808274581522</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02245367063688314</v>
+        <v>0.02183836098496281</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>32</v>
@@ -2935,19 +2935,19 @@
         <v>30797</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>20667</v>
+        <v>21619</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>41126</v>
+        <v>42026</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01993437204555799</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01337725832812829</v>
+        <v>0.01399314534093122</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02661998237939873</v>
+        <v>0.02720200390825093</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>25914</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>17468</v>
+        <v>17237</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>36379</v>
+        <v>36889</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.08720723105610312</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.05878498164368351</v>
+        <v>0.05800499685062997</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1224244360080769</v>
+        <v>0.1241385584443857</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>33</v>
@@ -2985,19 +2985,19 @@
         <v>32131</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>22352</v>
+        <v>22989</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>43175</v>
+        <v>43955</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.02575072525125754</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.01791373053739863</v>
+        <v>0.01842346929469508</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.03460172660160681</v>
+        <v>0.03522649899533682</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>59</v>
@@ -3006,19 +3006,19 @@
         <v>58046</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>46192</v>
+        <v>45132</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>74893</v>
+        <v>75282</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.03757143011383264</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.02989886486008652</v>
+        <v>0.02921265412254401</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.04847615355804977</v>
+        <v>0.04872782513142069</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>56465</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>44940</v>
+        <v>44094</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>70488</v>
+        <v>70978</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1900175469295285</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1512334548373808</v>
+        <v>0.1483864127279437</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2372076409708885</v>
+        <v>0.2388576947283454</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>164</v>
@@ -3056,19 +3056,19 @@
         <v>161432</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>138876</v>
+        <v>139056</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>187283</v>
+        <v>184590</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.129375296807366</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1112979428913583</v>
+        <v>0.111442361793922</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.150092373036464</v>
+        <v>0.1479340116871001</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>222</v>
@@ -3077,19 +3077,19 @@
         <v>217898</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>192250</v>
+        <v>192145</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>247973</v>
+        <v>245622</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1410393856049432</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1244382508998314</v>
+        <v>0.1243700838748726</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1605065324633849</v>
+        <v>0.1589848138669975</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>94701</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>79777</v>
+        <v>79542</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>110913</v>
+        <v>109667</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3186878286077439</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2684680200687843</v>
+        <v>0.2676766357541198</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3732463892557648</v>
+        <v>0.3690521777188203</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>296</v>
@@ -3127,19 +3127,19 @@
         <v>299990</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>273361</v>
+        <v>271229</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>331137</v>
+        <v>330000</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.240418026164041</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.219076991524026</v>
+        <v>0.2173687785725998</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2653803639508568</v>
+        <v>0.2644684639268189</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>392</v>
@@ -3148,19 +3148,19 @@
         <v>394690</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>360464</v>
+        <v>356520</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>429612</v>
+        <v>426785</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2554726444216596</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.233318714513662</v>
+        <v>0.2307660984206518</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2780762299926102</v>
+        <v>0.2762466846826278</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>107838</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>92576</v>
+        <v>93778</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>125244</v>
+        <v>124742</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.3628976720376241</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3115384018185779</v>
+        <v>0.3155825073408137</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.421472882650797</v>
+        <v>0.4197820818235043</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>725</v>
@@ -3198,19 +3198,19 @@
         <v>735673</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>698167</v>
+        <v>701304</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>767174</v>
+        <v>768570</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.5895835149949069</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.5595253056166111</v>
+        <v>0.5620398533295209</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.614829389559032</v>
+        <v>0.6159477433351679</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>837</v>
@@ -3219,19 +3219,19 @@
         <v>843511</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>801832</v>
+        <v>810084</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>882733</v>
+        <v>884580</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.5459821678140065</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.5190043870937473</v>
+        <v>0.5243456367791921</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.5713696771470049</v>
+        <v>0.5725652853488788</v>
       </c>
     </row>
     <row r="39">
@@ -3323,19 +3323,19 @@
         <v>74106</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>58147</v>
+        <v>58249</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>92995</v>
+        <v>90630</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.02268108043603782</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.01779658838257963</v>
+        <v>0.0178278703449347</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.02846219252854173</v>
+        <v>0.02773846804803276</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>62</v>
@@ -3344,19 +3344,19 @@
         <v>63049</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>49471</v>
+        <v>48860</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>81119</v>
+        <v>82094</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01867516507846087</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.01465323951523105</v>
+        <v>0.01447248844943761</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.02402743111055793</v>
+        <v>0.02431622975716672</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>133</v>
@@ -3365,19 +3365,19 @@
         <v>137155</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>116265</v>
+        <v>114376</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>163684</v>
+        <v>158577</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.02064532888975111</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.01750077878597112</v>
+        <v>0.01721652558244133</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.02463853142073825</v>
+        <v>0.02386986284441466</v>
       </c>
     </row>
     <row r="41">
@@ -3394,19 +3394,19 @@
         <v>187038</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>162070</v>
+        <v>162610</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>216703</v>
+        <v>215446</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.05724502945331814</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.04960350144372365</v>
+        <v>0.04976875663714111</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.06632450466576043</v>
+        <v>0.06593966634054126</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>109</v>
@@ -3415,19 +3415,19 @@
         <v>112140</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>94952</v>
+        <v>91422</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>136619</v>
+        <v>132768</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.03321587905929482</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.02812488118000882</v>
+        <v>0.02707939422679582</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.04046663596345217</v>
+        <v>0.0393261084085617</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>293</v>
@@ -3436,19 +3436,19 @@
         <v>299177</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>264983</v>
+        <v>268606</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>334753</v>
+        <v>334759</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.04503374296718095</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.03988666608755436</v>
+        <v>0.04043201611523739</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.05038878345657029</v>
+        <v>0.0503896201633418</v>
       </c>
     </row>
     <row r="42">
@@ -3465,19 +3465,19 @@
         <v>516574</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>476556</v>
+        <v>473584</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>566891</v>
+        <v>557407</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1581034354053639</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1458555527704037</v>
+        <v>0.1449458957303204</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1735036126591044</v>
+        <v>0.1706009305200717</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>440</v>
@@ -3486,19 +3486,19 @@
         <v>444465</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>405625</v>
+        <v>406759</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>487498</v>
+        <v>483539</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1316507340349436</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1201463755094877</v>
+        <v>0.1204822234085988</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1443971728973476</v>
+        <v>0.1432246566869899</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>949</v>
@@ -3507,19 +3507,19 @@
         <v>961039</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>907744</v>
+        <v>902701</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1022415</v>
+        <v>1020227</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1446605333688949</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1366383419602034</v>
+        <v>0.1358792758491509</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1538992929089268</v>
+        <v>0.1535699286086636</v>
       </c>
     </row>
     <row r="43">
@@ -3536,19 +3536,19 @@
         <v>939964</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>882626</v>
+        <v>886397</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>992053</v>
+        <v>993508</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2876867798111388</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2701377516762238</v>
+        <v>0.2712918032941048</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.3036290282078494</v>
+        <v>0.3040745756243046</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>852</v>
@@ -3557,19 +3557,19 @@
         <v>870825</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>821948</v>
+        <v>820423</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>927404</v>
+        <v>918100</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.2579388931660255</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.2434614913758784</v>
+        <v>0.2430097628619092</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2746977844896197</v>
+        <v>0.2719418421754973</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>1762</v>
@@ -3578,19 +3578,19 @@
         <v>1810789</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>1736313</v>
+        <v>1742903</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>1886145</v>
+        <v>1884497</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2725693095625459</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2613588745139274</v>
+        <v>0.2623507907739351</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2839122961474452</v>
+        <v>0.2836643251308461</v>
       </c>
     </row>
     <row r="44">
@@ -3607,19 +3607,19 @@
         <v>1549636</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1491854</v>
+        <v>1491175</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>1605900</v>
+        <v>1602542</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.4742836748941414</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.4565988875207625</v>
+        <v>0.4563912872712502</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.4915039530337506</v>
+        <v>0.4904761861726709</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>1831</v>
@@ -3628,19 +3628,19 @@
         <v>1885611</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>1826846</v>
+        <v>1828863</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>1944332</v>
+        <v>1939764</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.5585193286612752</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.5411129733743999</v>
+        <v>0.5417104957192188</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.5759125907281851</v>
+        <v>0.5745594722149274</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>3361</v>
@@ -3649,19 +3649,19 @@
         <v>3435246</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>3352787</v>
+        <v>3351816</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>3511660</v>
+        <v>3520036</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.5170910852116272</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.5046789759336081</v>
+        <v>0.5045327146752859</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.5285933470208659</v>
+        <v>0.5298541487962611</v>
       </c>
     </row>
     <row r="45">
@@ -3995,19 +3995,19 @@
         <v>6999</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2944</v>
+        <v>2306</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15561</v>
+        <v>15516</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01600933512971847</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006733597027450165</v>
+        <v>0.005274409440112523</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03559149504911911</v>
+        <v>0.03548778454215824</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -4016,19 +4016,19 @@
         <v>5865</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1966</v>
+        <v>1999</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11773</v>
+        <v>12291</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0187162626434365</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006273958098482986</v>
+        <v>0.006380194641666327</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03757093872535116</v>
+        <v>0.03922121039866272</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -4037,19 +4037,19 @@
         <v>12864</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6817</v>
+        <v>6930</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>21618</v>
+        <v>22273</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01713948009657215</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009082339953786794</v>
+        <v>0.009233345704328069</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02880150628062479</v>
+        <v>0.02967503537400437</v>
       </c>
     </row>
     <row r="5">
@@ -4066,19 +4066,19 @@
         <v>11194</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5416</v>
+        <v>5400</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>20887</v>
+        <v>20598</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0256042277576711</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0123884732977238</v>
+        <v>0.01235083937286947</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04777350444227605</v>
+        <v>0.04711318876333091</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -4087,19 +4087,19 @@
         <v>4128</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1041</v>
+        <v>1054</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10343</v>
+        <v>9474</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01317459804288099</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.003323408454301805</v>
+        <v>0.003363504444174024</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0330046547458969</v>
+        <v>0.03023136884892916</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>14</v>
@@ -4108,19 +4108,19 @@
         <v>15323</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>8366</v>
+        <v>8832</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>24839</v>
+        <v>25170</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02041484481674015</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01114655081767674</v>
+        <v>0.01176736702626029</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03309339627265397</v>
+        <v>0.03353478617417656</v>
       </c>
     </row>
     <row r="6">
@@ -4137,19 +4137,19 @@
         <v>49211</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>37399</v>
+        <v>36336</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>65275</v>
+        <v>65491</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1125574999678676</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08553903959337891</v>
+        <v>0.08310794665670447</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.149299368954246</v>
+        <v>0.1497926274485476</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>15</v>
@@ -4158,19 +4158,19 @@
         <v>17856</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10278</v>
+        <v>10736</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>29021</v>
+        <v>28691</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05698155463297534</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03279718443268468</v>
+        <v>0.03426071861082071</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.09261055151923163</v>
+        <v>0.09155675046710765</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>63</v>
@@ -4179,19 +4179,19 @@
         <v>67067</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>51928</v>
+        <v>51715</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>84469</v>
+        <v>84958</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.08935448674344103</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06918378630402763</v>
+        <v>0.06890010772102124</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.112539229518742</v>
+        <v>0.113189823693252</v>
       </c>
     </row>
     <row r="7">
@@ -4208,19 +4208,19 @@
         <v>118468</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>100285</v>
+        <v>100692</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>139530</v>
+        <v>137882</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2709633178399818</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2293739528188079</v>
+        <v>0.2303045393097829</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3191375555033359</v>
+        <v>0.3153667151017021</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>60</v>
@@ -4229,19 +4229,19 @@
         <v>66479</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>52464</v>
+        <v>52379</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>82830</v>
+        <v>83980</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2121456649106048</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1674191830378575</v>
+        <v>0.1671484251282042</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2643223296728746</v>
+        <v>0.2679915106940445</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>167</v>
@@ -4250,19 +4250,19 @@
         <v>184947</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>161225</v>
+        <v>158652</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>213293</v>
+        <v>212382</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2464068884256676</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2148017552896734</v>
+        <v>0.2113738747568752</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2841722943379179</v>
+        <v>0.2829576767002352</v>
       </c>
     </row>
     <row r="8">
@@ -4279,19 +4279,19 @@
         <v>251338</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>230310</v>
+        <v>229881</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>272755</v>
+        <v>270995</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.574865619304761</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5267717684301881</v>
+        <v>0.5257905125701651</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6238511955751699</v>
+        <v>0.6198268392588567</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>197</v>
@@ -4300,19 +4300,19 @@
         <v>219038</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>201698</v>
+        <v>200780</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>234453</v>
+        <v>235432</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6989819197701024</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6436493561948612</v>
+        <v>0.6407176769595662</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7481740520143632</v>
+        <v>0.7512979135757163</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>430</v>
@@ -4321,19 +4321,19 @@
         <v>470375</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>439774</v>
+        <v>439498</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>497959</v>
+        <v>500650</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6266842999175791</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5859148991353093</v>
+        <v>0.5855469724914314</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6634351468868167</v>
+        <v>0.6670197798655206</v>
       </c>
     </row>
     <row r="9">
@@ -4425,19 +4425,19 @@
         <v>4834</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1864</v>
+        <v>1819</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10893</v>
+        <v>10942</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01157062691313781</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004463125265812494</v>
+        <v>0.004355214440748332</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02607593052326578</v>
+        <v>0.02619272837638161</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -4446,19 +4446,19 @@
         <v>11074</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5106</v>
+        <v>5530</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19854</v>
+        <v>19518</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03296100054936222</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01519858631888777</v>
+        <v>0.01645878038137352</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.059096408657611</v>
+        <v>0.05809429330144347</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>15</v>
@@ -4467,19 +4467,19 @@
         <v>15907</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9384</v>
+        <v>9260</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>25803</v>
+        <v>26309</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02110520114619033</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01244995554217999</v>
+        <v>0.01228570608260294</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03423383235787718</v>
+        <v>0.0349049158031016</v>
       </c>
     </row>
     <row r="11">
@@ -4496,19 +4496,19 @@
         <v>13265</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7436</v>
+        <v>7281</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>22977</v>
+        <v>22472</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03175379121428815</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01779986454972706</v>
+        <v>0.01742766314827741</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05500105429300017</v>
+        <v>0.05379329248310952</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>9</v>
@@ -4517,19 +4517,19 @@
         <v>9812</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4872</v>
+        <v>4956</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>18743</v>
+        <v>18205</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02920417080308054</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01450234859660743</v>
+        <v>0.01475109843101238</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0557899692521801</v>
+        <v>0.05418653074594325</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>22</v>
@@ -4538,19 +4538,19 @@
         <v>23077</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>15076</v>
+        <v>14546</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>36324</v>
+        <v>35161</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03061731994500668</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02000184573997194</v>
+        <v>0.01929840273166909</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0481922448513117</v>
+        <v>0.04665053562623622</v>
       </c>
     </row>
     <row r="12">
@@ -4567,19 +4567,19 @@
         <v>41437</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>29956</v>
+        <v>29632</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>55582</v>
+        <v>57075</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0991894733782446</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07170580552295754</v>
+        <v>0.07093039478287891</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1330486025187083</v>
+        <v>0.1366240022410132</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>22</v>
@@ -4588,19 +4588,19 @@
         <v>22288</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>14751</v>
+        <v>14807</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>33364</v>
+        <v>33710</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06633883855568283</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04390581719594618</v>
+        <v>0.04407367300400708</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09930718852284397</v>
+        <v>0.100337985340084</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>59</v>
@@ -4609,19 +4609,19 @@
         <v>63725</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>49710</v>
+        <v>48591</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>83447</v>
+        <v>80172</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.08454658673936022</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.065952804244035</v>
+        <v>0.06446749078035086</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1107127566768698</v>
+        <v>0.1063688656233578</v>
       </c>
     </row>
     <row r="13">
@@ -4638,19 +4638,19 @@
         <v>102115</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>82859</v>
+        <v>82519</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>121586</v>
+        <v>121322</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.24443754487317</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1983427857768005</v>
+        <v>0.1975281365651449</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2910445549256466</v>
+        <v>0.2904142218051851</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>69</v>
@@ -4659,19 +4659,19 @@
         <v>80532</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>65375</v>
+        <v>64936</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>98881</v>
+        <v>98863</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2397027324479961</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1945895433411855</v>
+        <v>0.1932814728763705</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2943196920048286</v>
+        <v>0.2942658428642854</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>158</v>
@@ -4680,19 +4680,19 @@
         <v>182647</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>159221</v>
+        <v>157866</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>211222</v>
+        <v>211211</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.242327043143974</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2112465356558787</v>
+        <v>0.2094490149548059</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2802388139475036</v>
+        <v>0.2802238175742112</v>
       </c>
     </row>
     <row r="14">
@@ -4709,19 +4709,19 @@
         <v>256105</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>234400</v>
+        <v>234512</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>276276</v>
+        <v>278088</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6130485636211594</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5610936231495935</v>
+        <v>0.5613620137412503</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6613340925934059</v>
+        <v>0.6656711384800765</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>193</v>
@@ -4730,19 +4730,19 @@
         <v>212260</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>191568</v>
+        <v>194652</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>230602</v>
+        <v>230509</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6317932576438784</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5702028046475883</v>
+        <v>0.5793816118964661</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6863874545071343</v>
+        <v>0.6861101051801567</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>423</v>
@@ -4751,19 +4751,19 @@
         <v>468365</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>437857</v>
+        <v>436150</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>496416</v>
+        <v>497105</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6214038490254687</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5809272179953555</v>
+        <v>0.5786628358209029</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.658620338951861</v>
+        <v>0.6595340805949327</v>
       </c>
     </row>
     <row r="15">
@@ -4855,19 +4855,19 @@
         <v>14456</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8455</v>
+        <v>8428</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23645</v>
+        <v>23161</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02296812149545586</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0134325093485498</v>
+        <v>0.01339024709340378</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03756627013755648</v>
+        <v>0.03679805232952416</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -4876,19 +4876,19 @@
         <v>5221</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13027</v>
+        <v>12894</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02007070777189709</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00483369685389315</v>
+        <v>0.004820141377804602</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05007855603941207</v>
+        <v>0.04956665611827116</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>19</v>
@@ -4897,19 +4897,19 @@
         <v>19677</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>12105</v>
+        <v>12623</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>29221</v>
+        <v>29737</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02212083078381849</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01360846610966326</v>
+        <v>0.01418988737641048</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03284979934282302</v>
+        <v>0.03342901891582687</v>
       </c>
     </row>
     <row r="17">
@@ -4926,19 +4926,19 @@
         <v>21611</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>13128</v>
+        <v>13470</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>32324</v>
+        <v>33272</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03433434014328199</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02085767865473809</v>
+        <v>0.02140079597050513</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05135582016202268</v>
+        <v>0.05286220656047931</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -4947,19 +4947,19 @@
         <v>6143</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2092</v>
+        <v>2060</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>13170</v>
+        <v>12683</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02361699135170294</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.008042425757826644</v>
+        <v>0.007919098938700169</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05062943081747179</v>
+        <v>0.04875612222452194</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>26</v>
@@ -4968,19 +4968,19 @@
         <v>27754</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>18222</v>
+        <v>18592</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>40403</v>
+        <v>40287</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03120026577528684</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02048432679015556</v>
+        <v>0.02090088607277463</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04541961566566838</v>
+        <v>0.04528895194825599</v>
       </c>
     </row>
     <row r="18">
@@ -4997,19 +4997,19 @@
         <v>76049</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>61402</v>
+        <v>60848</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>94402</v>
+        <v>96443</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1208244550471109</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09755476566114664</v>
+        <v>0.09667452189419817</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1499829805221554</v>
+        <v>0.1532262772589391</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>24</v>
@@ -5018,19 +5018,19 @@
         <v>25126</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>16711</v>
+        <v>16735</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>36890</v>
+        <v>35680</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.09659130163322342</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06423982966229416</v>
+        <v>0.06433264412086878</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1418160876386843</v>
+        <v>0.1371624729152158</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>96</v>
@@ -5039,19 +5039,19 @@
         <v>101175</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>83583</v>
+        <v>84136</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>122444</v>
+        <v>121117</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1137379538566454</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.09396160178939968</v>
+        <v>0.09458370103322626</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1376483936664945</v>
+        <v>0.1361567207970812</v>
       </c>
     </row>
     <row r="19">
@@ -5068,19 +5068,19 @@
         <v>122071</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>103870</v>
+        <v>102734</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>146476</v>
+        <v>145465</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.193943843633989</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1650269568496121</v>
+        <v>0.1632208151795236</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2327178249257394</v>
+        <v>0.2311114866179854</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>38</v>
@@ -5089,19 +5089,19 @@
         <v>41062</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>29692</v>
+        <v>29993</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>54351</v>
+        <v>53498</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1578507895522435</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1141429597030269</v>
+        <v>0.1153019452088034</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2089399191704021</v>
+        <v>0.2056583405753215</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>151</v>
@@ -5110,19 +5110,19 @@
         <v>163133</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>140756</v>
+        <v>140195</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>189241</v>
+        <v>186759</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1833891516238585</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1582335424068571</v>
+        <v>0.1576032257718807</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.212739286283422</v>
+        <v>0.2099486306737537</v>
       </c>
     </row>
     <row r="20">
@@ -5139,19 +5139,19 @@
         <v>395228</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>367983</v>
+        <v>370994</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>418540</v>
+        <v>419189</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6279292396801623</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5846435013700323</v>
+        <v>0.5894266424824075</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6649662707553545</v>
+        <v>0.6659972257800781</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>172</v>
@@ -5160,19 +5160,19 @@
         <v>182577</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>167241</v>
+        <v>167676</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>197511</v>
+        <v>197293</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7018702096909329</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6429147362433724</v>
+        <v>0.6445879919680265</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7592791138286641</v>
+        <v>0.7584430132481267</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>543</v>
@@ -5181,19 +5181,19 @@
         <v>577805</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>547308</v>
+        <v>545819</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>605921</v>
+        <v>604966</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6495517979603909</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6152685579177306</v>
+        <v>0.613593714602689</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6811593725128514</v>
+        <v>0.6800851824805096</v>
       </c>
     </row>
     <row r="21">
@@ -5285,19 +5285,19 @@
         <v>27639</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>17970</v>
+        <v>18700</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>40500</v>
+        <v>41325</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02388803558798651</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01553141995099261</v>
+        <v>0.0161626087468204</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03500400907197231</v>
+        <v>0.03571674766529874</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>18</v>
@@ -5306,19 +5306,19 @@
         <v>19685</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>11915</v>
+        <v>12007</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>30695</v>
+        <v>31052</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02574056277716008</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01558015630971767</v>
+        <v>0.01570125164970334</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04013839064905475</v>
+        <v>0.04060580151398547</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>43</v>
@@ -5327,19 +5327,19 @@
         <v>47323</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>34611</v>
+        <v>34218</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>64294</v>
+        <v>61770</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02462522131809139</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01801005293593818</v>
+        <v>0.01780570188335348</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03345611793131742</v>
+        <v>0.03214284153698267</v>
       </c>
     </row>
     <row r="23">
@@ -5356,19 +5356,19 @@
         <v>24774</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>16452</v>
+        <v>16399</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>35921</v>
+        <v>35456</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02141240276812753</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01421977277042761</v>
+        <v>0.01417326182695484</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0310461484169836</v>
+        <v>0.03064479000607769</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>19</v>
@@ -5377,19 +5377,19 @@
         <v>22599</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>13634</v>
+        <v>13437</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>35315</v>
+        <v>34871</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.02955144244374012</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01782881006194836</v>
+        <v>0.01757151014906255</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.04617948042173589</v>
+        <v>0.04559857645268349</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>44</v>
@@ -5398,19 +5398,19 @@
         <v>47373</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>34697</v>
+        <v>34309</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>62862</v>
+        <v>63450</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02465121294089248</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01805490919849773</v>
+        <v>0.01785302521150172</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03271108574187973</v>
+        <v>0.03301682508880018</v>
       </c>
     </row>
     <row r="24">
@@ -5427,19 +5427,19 @@
         <v>107773</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>89691</v>
+        <v>90979</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>130874</v>
+        <v>130546</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.09314754897975425</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07751957653376647</v>
+        <v>0.07863214740031681</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1131136509783917</v>
+        <v>0.1128296230398899</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>62</v>
@@ -5448,19 +5448,19 @@
         <v>67401</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>53020</v>
+        <v>52407</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>85188</v>
+        <v>85173</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.08813730645363622</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.06933182663608885</v>
+        <v>0.06853023565922667</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1113956053531367</v>
+        <v>0.1113763195641247</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>164</v>
@@ -5469,19 +5469,19 @@
         <v>175174</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>150913</v>
+        <v>148914</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>201686</v>
+        <v>203547</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.09115379724633624</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07852919783254068</v>
+        <v>0.07748918962533452</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1049491797370444</v>
+        <v>0.1059179710396519</v>
       </c>
     </row>
     <row r="25">
@@ -5498,19 +5498,19 @@
         <v>265032</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>235411</v>
+        <v>235763</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>293114</v>
+        <v>291270</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2290650923276236</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2034640645855676</v>
+        <v>0.2037680485047478</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2533360129708613</v>
+        <v>0.2517423146799628</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>141</v>
@@ -5519,19 +5519,19 @@
         <v>154013</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>132627</v>
+        <v>129663</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>181391</v>
+        <v>175585</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2013956096392493</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1734297092782884</v>
+        <v>0.1695542209024981</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2371956607653306</v>
+        <v>0.2296037339824868</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>392</v>
@@ -5540,19 +5540,19 @@
         <v>419045</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>382066</v>
+        <v>381049</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>460603</v>
+        <v>459056</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2180544319084624</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1988119106170541</v>
+        <v>0.1982826023830468</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.23967952573831</v>
+        <v>0.2388747842075331</v>
       </c>
     </row>
     <row r="26">
@@ -5569,19 +5569,19 @@
         <v>731797</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>697170</v>
+        <v>700077</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>765557</v>
+        <v>760768</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6324869203365081</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6025593587905574</v>
+        <v>0.6050714860735983</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6616660054950855</v>
+        <v>0.6575264137250392</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>470</v>
@@ -5590,19 +5590,19 @@
         <v>501032</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>473448</v>
+        <v>472252</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>528188</v>
+        <v>527262</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6551750786862143</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6191046289298976</v>
+        <v>0.6175411059704278</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6906861562770278</v>
+        <v>0.6894753074264413</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1148</v>
@@ -5611,19 +5611,19 @@
         <v>1232829</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1186335</v>
+        <v>1188569</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1277518</v>
+        <v>1278105</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6415153365862175</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6173218982284423</v>
+        <v>0.6184843154271656</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.664769625821928</v>
+        <v>0.6650752042975271</v>
       </c>
     </row>
     <row r="27">
@@ -5715,19 +5715,19 @@
         <v>14188</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>8223</v>
+        <v>8365</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>22364</v>
+        <v>22620</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02789774534326507</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01616816478321593</v>
+        <v>0.01644747518143727</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04397393281756369</v>
+        <v>0.04447806744211872</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>9</v>
@@ -5736,19 +5736,19 @@
         <v>10788</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>4859</v>
+        <v>4981</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>20387</v>
+        <v>21229</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01416681269730402</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.006380794987851933</v>
+        <v>0.006540903764701412</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02677098292504146</v>
+        <v>0.02787688926180769</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>24</v>
@@ -5757,19 +5757,19 @@
         <v>24976</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>15555</v>
+        <v>15898</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>36049</v>
+        <v>36126</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01966494391524884</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01224738924369042</v>
+        <v>0.01251685698225229</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02838276987535596</v>
+        <v>0.02844357165031091</v>
       </c>
     </row>
     <row r="29">
@@ -5786,19 +5786,19 @@
         <v>24726</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>15423</v>
+        <v>16347</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>36276</v>
+        <v>36691</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.04861956705847504</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03032672174319259</v>
+        <v>0.03214330146629465</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.07132922159928201</v>
+        <v>0.07214607896442</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>26</v>
@@ -5807,19 +5807,19 @@
         <v>29334</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>19437</v>
+        <v>19582</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>43524</v>
+        <v>42312</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03852030503748243</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02552374399374012</v>
+        <v>0.02571412759564927</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.05715397483273003</v>
+        <v>0.05556186971042077</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>49</v>
@@ -5828,19 +5828,19 @@
         <v>54060</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>40439</v>
+        <v>39195</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>72476</v>
+        <v>71414</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0425642450397777</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03183954785479181</v>
+        <v>0.03086017257285739</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05706378612206284</v>
+        <v>0.05622748492311117</v>
       </c>
     </row>
     <row r="30">
@@ -5857,19 +5857,19 @@
         <v>56952</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>43020</v>
+        <v>43437</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>72958</v>
+        <v>70533</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1119854576770562</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.08459037551987002</v>
+        <v>0.08541053512323665</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1434577361866139</v>
+        <v>0.1386887707138066</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>52</v>
@@ -5878,19 +5878,19 @@
         <v>54297</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>41559</v>
+        <v>40699</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>70278</v>
+        <v>69620</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.07130101651156502</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.05457412144411442</v>
+        <v>0.05344492035360068</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.09228642486504564</v>
+        <v>0.09142254878219583</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>109</v>
@@ -5899,19 +5899,19 @@
         <v>111250</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>93154</v>
+        <v>92534</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>132439</v>
+        <v>134347</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.08759185427358872</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.0733441129298146</v>
+        <v>0.07285644260431819</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1042751033140772</v>
+        <v>0.1057771943097074</v>
       </c>
     </row>
     <row r="31">
@@ -5928,19 +5928,19 @@
         <v>121711</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>101935</v>
+        <v>103609</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>142940</v>
+        <v>143900</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2393210158735252</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2004355877878173</v>
+        <v>0.2037266079612996</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2810629875226365</v>
+        <v>0.2829510402366448</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>130</v>
@@ -5949,19 +5949,19 @@
         <v>143944</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>123629</v>
+        <v>122236</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>166535</v>
+        <v>167846</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1890208209569024</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1623451116398348</v>
+        <v>0.1605152044100243</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2186876234839229</v>
+        <v>0.2204080812186416</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>247</v>
@@ -5970,19 +5970,19 @@
         <v>265655</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>236490</v>
+        <v>237445</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>299101</v>
+        <v>299471</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2091619926508108</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1861991786554207</v>
+        <v>0.1869510042200281</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2354961848594103</v>
+        <v>0.2357875471498658</v>
       </c>
     </row>
     <row r="32">
@@ -5999,19 +5999,19 @@
         <v>290991</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>266880</v>
+        <v>269252</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>314385</v>
+        <v>315846</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5721762140476785</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5247667610619172</v>
+        <v>0.5294309040149747</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.618176211662524</v>
+        <v>0.6210481029693502</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>486</v>
@@ -6020,19 +6020,19 @@
         <v>523159</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>493131</v>
+        <v>493458</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>547814</v>
+        <v>547294</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.6869910447967461</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6475602497653515</v>
+        <v>0.6479896720604302</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7193677722112657</v>
+        <v>0.7186847583498821</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>759</v>
@@ -6041,19 +6041,19 @@
         <v>814149</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>776747</v>
+        <v>778205</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>847277</v>
+        <v>850948</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.641016964120574</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.611568812855507</v>
+        <v>0.61271647584683</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.6670998161005437</v>
+        <v>0.6699905804526907</v>
       </c>
     </row>
     <row r="33">
@@ -6145,19 +6145,19 @@
         <v>6627</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>2858</v>
+        <v>2749</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>12724</v>
+        <v>12230</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02483082181441735</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.0107090179997177</v>
+        <v>0.01029927511579723</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.04767827309505764</v>
+        <v>0.04582416630273425</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>14</v>
@@ -6166,19 +6166,19 @@
         <v>14799</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>8774</v>
+        <v>8729</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>24521</v>
+        <v>24856</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01336761630706978</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.007925318661113982</v>
+        <v>0.007884518604219891</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02214916529753118</v>
+        <v>0.02245215470451645</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>21</v>
@@ -6187,19 +6187,19 @@
         <v>21426</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>13787</v>
+        <v>13333</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>33163</v>
+        <v>32949</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01559426629338324</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01003480455974483</v>
+        <v>0.009703781248472735</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02413663258039226</v>
+        <v>0.02398082202150534</v>
       </c>
     </row>
     <row r="35">
@@ -6216,19 +6216,19 @@
         <v>13184</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>7493</v>
+        <v>7376</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>21633</v>
+        <v>21684</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.04940092403022824</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.02807618096003417</v>
+        <v>0.02763672282465078</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.08105644101369194</v>
+        <v>0.08125032298775356</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>22</v>
@@ -6237,19 +6237,19 @@
         <v>23447</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>14933</v>
+        <v>15468</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>34912</v>
+        <v>36164</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.02117935904324633</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.01348886261818829</v>
+        <v>0.01397214644538355</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.03153551034820733</v>
+        <v>0.03266627499558561</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>35</v>
@@ -6258,19 +6258,19 @@
         <v>36631</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>26264</v>
+        <v>25550</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>51718</v>
+        <v>49626</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.02666120679095785</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01911521768392398</v>
+        <v>0.01859599356517505</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.03764189881687895</v>
+        <v>0.03611931548330746</v>
       </c>
     </row>
     <row r="36">
@@ -6287,19 +6287,19 @@
         <v>51575</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>40873</v>
+        <v>40278</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>66266</v>
+        <v>63343</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1932519174723633</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1531488410953836</v>
+        <v>0.1509193308944652</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2482973116099823</v>
+        <v>0.237345785087892</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>78</v>
@@ -6308,19 +6308,19 @@
         <v>83317</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>66967</v>
+        <v>66699</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>101501</v>
+        <v>103088</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.07525903630518609</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.06048996108922028</v>
+        <v>0.06024757868089296</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.09168420520912059</v>
+        <v>0.09311721560469198</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>129</v>
@@ -6329,19 +6329,19 @@
         <v>134893</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>113478</v>
+        <v>112631</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>158871</v>
+        <v>156805</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.0981783538614821</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.08259197381248107</v>
+        <v>0.08197560781521415</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1156304920629622</v>
+        <v>0.1141266892911605</v>
       </c>
     </row>
     <row r="37">
@@ -6358,19 +6358,19 @@
         <v>78979</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>64040</v>
+        <v>65611</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>94376</v>
+        <v>93860</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2959304577879073</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2399568153850536</v>
+        <v>0.2458409369597074</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3536246623470203</v>
+        <v>0.3516893300916955</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>207</v>
@@ -6379,19 +6379,19 @@
         <v>216928</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>193285</v>
+        <v>191673</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>244874</v>
+        <v>243747</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1959471877272833</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1745901160308227</v>
+        <v>0.1731340682360908</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2211902464190197</v>
+        <v>0.2201714996676614</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>287</v>
@@ -6400,19 +6400,19 @@
         <v>295907</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>267049</v>
+        <v>266399</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>325895</v>
+        <v>326346</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2153682603730948</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1943644209913759</v>
+        <v>0.1938917670152938</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2371941765359783</v>
+        <v>0.2375226686406308</v>
       </c>
     </row>
     <row r="38">
@@ -6429,19 +6429,19 @@
         <v>116517</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>100736</v>
+        <v>99872</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>133282</v>
+        <v>132062</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.4365858788950838</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3774557127904812</v>
+        <v>0.3742195901605547</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.4994040114889309</v>
+        <v>0.4948334280522326</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>721</v>
@@ -6450,19 +6450,19 @@
         <v>768584</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>736519</v>
+        <v>736791</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>797633</v>
+        <v>799636</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.6942468006172144</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.6652829415401836</v>
+        <v>0.6655286944365402</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.7204862464625533</v>
+        <v>0.7222954686383785</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>835</v>
@@ -6471,19 +6471,19 @@
         <v>885101</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>850913</v>
+        <v>849860</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>920861</v>
+        <v>918576</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.6441979126810821</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.6193155041549003</v>
+        <v>0.6185489619802615</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.6702246474657989</v>
+        <v>0.6685619345360235</v>
       </c>
     </row>
     <row r="39">
@@ -6575,19 +6575,19 @@
         <v>74743</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>58395</v>
+        <v>60169</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>93879</v>
+        <v>94930</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.02187492050305832</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.01709018343788264</v>
+        <v>0.01760952017333383</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.02747533272227869</v>
+        <v>0.02778291320859791</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>61</v>
@@ -6596,19 +6596,19 @@
         <v>67432</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>53383</v>
+        <v>50673</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>89867</v>
+        <v>88820</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01903349585493044</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.01506798890617529</v>
+        <v>0.01430311087064634</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.02536609447946632</v>
+        <v>0.02507072652743392</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>134</v>
@@ -6617,19 +6617,19 @@
         <v>142175</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>117969</v>
+        <v>118583</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>168224</v>
+        <v>167856</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.02042849919338686</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.01695041866943669</v>
+        <v>0.01703874311791304</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.02417137996900739</v>
+        <v>0.02411856200028184</v>
       </c>
     </row>
     <row r="41">
@@ -6646,19 +6646,19 @@
         <v>108755</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>89153</v>
+        <v>90350</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>129469</v>
+        <v>131212</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.03182916660263927</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.02609218185943448</v>
+        <v>0.02644240200805005</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.03789148086958147</v>
+        <v>0.03840144299761963</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>86</v>
@@ -6667,19 +6667,19 @@
         <v>95464</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>76853</v>
+        <v>75734</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>117267</v>
+        <v>117034</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.02694589478966564</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.02169280389934257</v>
+        <v>0.02137705300159245</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.0331001761223686</v>
+        <v>0.03303433894064102</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>190</v>
@@ -6688,19 +6688,19 @@
         <v>204219</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>177460</v>
+        <v>176973</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>237600</v>
+        <v>233607</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.02934334723880121</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.02549851547468181</v>
+        <v>0.02542843788584539</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.03413968044627205</v>
+        <v>0.03356594439705086</v>
       </c>
     </row>
     <row r="42">
@@ -6717,19 +6717,19 @@
         <v>382998</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>348487</v>
+        <v>343755</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>422571</v>
+        <v>424242</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1120910232625044</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1019908088798696</v>
+        <v>0.1006057752247406</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1236728957994513</v>
+        <v>0.1241619170576983</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>253</v>
@@ -6738,19 +6738,19 @@
         <v>270286</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>237691</v>
+        <v>237442</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>305028</v>
+        <v>301748</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.07629184027458145</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.06709144542120106</v>
+        <v>0.06702110797085281</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.08609824888459687</v>
+        <v>0.08517252969783239</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>620</v>
@@ -6759,19 +6759,19 @@
         <v>653284</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>607457</v>
+        <v>605232</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>707521</v>
+        <v>702829</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.09386752359071961</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.08728287745580794</v>
+        <v>0.08696315591816935</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1016606249296206</v>
+        <v>0.1009864159622988</v>
       </c>
     </row>
     <row r="43">
@@ -6788,19 +6788,19 @@
         <v>808376</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>757962</v>
+        <v>757254</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>860641</v>
+        <v>863963</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2365853146422644</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2218307047130125</v>
+        <v>0.221623519915401</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.251881520541057</v>
+        <v>0.2528537704431231</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>645</v>
@@ -6809,19 +6809,19 @@
         <v>702958</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>648222</v>
+        <v>653758</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>748007</v>
+        <v>756365</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1984193579410251</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1829694031211986</v>
+        <v>0.1845320414274626</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2111350133233705</v>
+        <v>0.2134943591663421</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>1402</v>
@@ -6830,19 +6830,19 @@
         <v>1511334</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>1446706</v>
+        <v>1442881</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>1584667</v>
+        <v>1585316</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2171570137323519</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2078710004020489</v>
+        <v>0.2073213059740348</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2276940164988867</v>
+        <v>0.2277872529282924</v>
       </c>
     </row>
     <row r="44">
@@ -6859,19 +6859,19 @@
         <v>2041975</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1983761</v>
+        <v>1976740</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>2101206</v>
+        <v>2103504</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.5976195749895336</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.5805822689152825</v>
+        <v>0.5785273944767815</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.6149545842994011</v>
+        <v>0.6156271090323939</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>2239</v>
@@ -6880,19 +6880,19 @@
         <v>2406649</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>2348911</v>
+        <v>2349215</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>2464344</v>
+        <v>2467555</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.6793094111397974</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.663011993385234</v>
+        <v>0.6630978397930719</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.6955944470154594</v>
+        <v>0.6965009816349403</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>4138</v>
@@ -6901,19 +6901,19 @@
         <v>4448624</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>4361160</v>
+        <v>4368492</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>4531150</v>
+        <v>4538020</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.6392036162447404</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.6266362597394558</v>
+        <v>0.6276896675043632</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.6510613137932071</v>
+        <v>0.6520485066042226</v>
       </c>
     </row>
     <row r="45">
@@ -7247,19 +7247,19 @@
         <v>8439</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4003</v>
+        <v>3948</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16602</v>
+        <v>16880</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01966798902505229</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009328824544712193</v>
+        <v>0.009201664179236376</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03869040814977687</v>
+        <v>0.03933871639625338</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -7268,19 +7268,19 @@
         <v>2900</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>925</v>
+        <v>906</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8768</v>
+        <v>7733</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.00835667298373393</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002665820009059815</v>
+        <v>0.00261086924816005</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02526381869400621</v>
+        <v>0.02228226759435897</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -7289,19 +7289,19 @@
         <v>11340</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5922</v>
+        <v>5569</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20397</v>
+        <v>19994</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01461012221449639</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007630581214843158</v>
+        <v>0.007174595778279012</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0262799343662336</v>
+        <v>0.02576048277078877</v>
       </c>
     </row>
     <row r="5">
@@ -7318,19 +7318,19 @@
         <v>13301</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7417</v>
+        <v>7246</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>23215</v>
+        <v>22473</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03099760258839282</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01728480331471976</v>
+        <v>0.01688622411864712</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05410172167440271</v>
+        <v>0.05237377212039488</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -7339,19 +7339,19 @@
         <v>5981</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2113</v>
+        <v>2069</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>12389</v>
+        <v>11912</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01723262991888539</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.006089094089069778</v>
+        <v>0.005960583704794859</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03569684717329259</v>
+        <v>0.034323062353257</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>18</v>
@@ -7360,19 +7360,19 @@
         <v>19281</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>11588</v>
+        <v>12006</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>28996</v>
+        <v>29726</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02484258064762172</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01493031262503324</v>
+        <v>0.01546909206106916</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03735951555154219</v>
+        <v>0.03829903736751929</v>
       </c>
     </row>
     <row r="6">
@@ -7389,19 +7389,19 @@
         <v>52079</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>38501</v>
+        <v>38730</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>68577</v>
+        <v>68542</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1213705490445813</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08972639150917519</v>
+        <v>0.09026064565158276</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1598182633628334</v>
+        <v>0.1597368216696209</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>41</v>
@@ -7410,19 +7410,19 @@
         <v>41488</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>30374</v>
+        <v>30426</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>54737</v>
+        <v>54752</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1195422815739744</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.087519127077405</v>
+        <v>0.08767042213232565</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1577172240805688</v>
+        <v>0.1577630881704911</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>85</v>
@@ -7431,19 +7431,19 @@
         <v>93567</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>78170</v>
+        <v>74274</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>114029</v>
+        <v>113027</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1205530373309467</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.10071571478198</v>
+        <v>0.09569608614073392</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1469170033812165</v>
+        <v>0.1456259346793856</v>
       </c>
     </row>
     <row r="7">
@@ -7460,19 +7460,19 @@
         <v>102043</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>86087</v>
+        <v>84491</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>122198</v>
+        <v>121474</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2378112352080968</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2006264106197483</v>
+        <v>0.1969060445832858</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.284783565304695</v>
+        <v>0.2830965407706333</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>84</v>
@@ -7481,19 +7481,19 @@
         <v>87672</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>71930</v>
+        <v>72367</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>108325</v>
+        <v>105928</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2526182229136152</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2072567846335955</v>
+        <v>0.2085165757658232</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3121268771793379</v>
+        <v>0.3052182581689725</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>181</v>
@@ -7502,19 +7502,19 @@
         <v>189715</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>165219</v>
+        <v>164159</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>214567</v>
+        <v>213152</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2444321952631853</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2128702287946149</v>
+        <v>0.211504607042591</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2764513678602661</v>
+        <v>0.2746285725186813</v>
       </c>
     </row>
     <row r="8">
@@ -7531,19 +7531,19 @@
         <v>253230</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>231288</v>
+        <v>231272</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>275409</v>
+        <v>273607</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5901526241338767</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5390166751571572</v>
+        <v>0.538979165609592</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6418422201762068</v>
+        <v>0.6376419412846487</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>198</v>
@@ -7552,19 +7552,19 @@
         <v>209014</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>188672</v>
+        <v>189720</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>228068</v>
+        <v>225676</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6022501926097911</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.543637831036169</v>
+        <v>0.5466577174802564</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.657151262701912</v>
+        <v>0.6502597502992024</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>433</v>
@@ -7573,19 +7573,19 @@
         <v>462244</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>434841</v>
+        <v>434297</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>490320</v>
+        <v>491972</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5955620645437499</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5602556786700418</v>
+        <v>0.5595550096019043</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6317362886636153</v>
+        <v>0.6338644810041704</v>
       </c>
     </row>
     <row r="9">
@@ -7677,19 +7677,19 @@
         <v>8824</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4149</v>
+        <v>4054</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17062</v>
+        <v>16247</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02344662667278164</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01102592545477464</v>
+        <v>0.01077271654555577</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04533841430847617</v>
+        <v>0.0431734594191984</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -7698,19 +7698,19 @@
         <v>9026</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4226</v>
+        <v>4090</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16522</v>
+        <v>16577</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02442542901825985</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01143708621893462</v>
+        <v>0.01106785554620763</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04471071581014524</v>
+        <v>0.0448585951809712</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -7719,19 +7719,19 @@
         <v>17850</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11343</v>
+        <v>10900</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>29246</v>
+        <v>27190</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02393156693295691</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01520750608742729</v>
+        <v>0.0146142397575816</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0392112058722164</v>
+        <v>0.03645496192542105</v>
       </c>
     </row>
     <row r="11">
@@ -7748,19 +7748,19 @@
         <v>5714</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2314</v>
+        <v>2036</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11646</v>
+        <v>12528</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01518384130090933</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.006148295673408447</v>
+        <v>0.005410880192714866</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03094589387393915</v>
+        <v>0.03328877183489085</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>8</v>
@@ -7769,19 +7769,19 @@
         <v>8154</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3807</v>
+        <v>3859</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>15031</v>
+        <v>15640</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02206528055087473</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01030133620533056</v>
+        <v>0.01044276345318707</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04067663418782682</v>
+        <v>0.04232396385959755</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>14</v>
@@ -7790,19 +7790,19 @@
         <v>13868</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>7731</v>
+        <v>7941</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>22790</v>
+        <v>23698</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01859319861975412</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01036584821682263</v>
+        <v>0.01064725431413845</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03055476370951666</v>
+        <v>0.03177234632487805</v>
       </c>
     </row>
     <row r="12">
@@ -7819,19 +7819,19 @@
         <v>44794</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>33740</v>
+        <v>32908</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>59572</v>
+        <v>58254</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1190289873242955</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08965595790125291</v>
+        <v>0.08744583067228227</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1582971071488956</v>
+        <v>0.1547962645860962</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>48</v>
@@ -7840,19 +7840,19 @@
         <v>50856</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>37674</v>
+        <v>39104</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>65664</v>
+        <v>65670</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1376238656036697</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1019497772618859</v>
+        <v>0.1058198043689864</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.177694386393654</v>
+        <v>0.1777104165050259</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>90</v>
@@ -7861,19 +7861,19 @@
         <v>95650</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>76564</v>
+        <v>76308</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>114291</v>
+        <v>115956</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1282416799096629</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1026526199973359</v>
+        <v>0.1023085616548901</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1532344781792509</v>
+        <v>0.1554666254195428</v>
       </c>
     </row>
     <row r="13">
@@ -7890,19 +7890,19 @@
         <v>109832</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>92937</v>
+        <v>94003</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>127114</v>
+        <v>130130</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2918514850883729</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2469573111466825</v>
+        <v>0.2497896073571136</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.337772384551392</v>
+        <v>0.345787216452612</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>96</v>
@@ -7911,19 +7911,19 @@
         <v>99764</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>83275</v>
+        <v>83120</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>116760</v>
+        <v>119326</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2699752497259085</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2253524778371688</v>
+        <v>0.224933820967761</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3159688860671072</v>
+        <v>0.3229110733487375</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>199</v>
@@ -7932,19 +7932,19 @@
         <v>209596</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>186355</v>
+        <v>186823</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>236614</v>
+        <v>236880</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.281013068816346</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2498530219771443</v>
+        <v>0.2504793675425657</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3172359758445693</v>
+        <v>0.3175928905298018</v>
       </c>
     </row>
     <row r="14">
@@ -7961,19 +7961,19 @@
         <v>207165</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>187566</v>
+        <v>186942</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>226793</v>
+        <v>225167</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5504890596136406</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.498409352905019</v>
+        <v>0.496750887304042</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6026450670893242</v>
+        <v>0.5983255775485438</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>189</v>
@@ -7982,19 +7982,19 @@
         <v>201731</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>183707</v>
+        <v>182016</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>222737</v>
+        <v>220150</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5459101751012873</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4971354017938508</v>
+        <v>0.4925606515959709</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6027556527418974</v>
+        <v>0.5957545362613892</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>383</v>
@@ -8003,19 +8003,19 @@
         <v>408896</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>381181</v>
+        <v>379917</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>437700</v>
+        <v>435866</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.54822048572128</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5110618956136475</v>
+        <v>0.5093674935468173</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5868388879019868</v>
+        <v>0.5843805177407042</v>
       </c>
     </row>
     <row r="15">
@@ -8107,19 +8107,19 @@
         <v>15603</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8451</v>
+        <v>8499</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>24364</v>
+        <v>24828</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03005678387833056</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01628047381074304</v>
+        <v>0.01637186262098456</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04693431164906964</v>
+        <v>0.04782798684566143</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -8128,19 +8128,19 @@
         <v>2890</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>880</v>
+        <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8082</v>
+        <v>7009</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01739502037350769</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.005296286035822136</v>
+        <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04864990022021588</v>
+        <v>0.04218920260823367</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>18</v>
@@ -8149,19 +8149,19 @@
         <v>18492</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>11565</v>
+        <v>11078</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>28644</v>
+        <v>28029</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02698714558740983</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01687756584074863</v>
+        <v>0.01616666040657048</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04180133179942602</v>
+        <v>0.04090494869739252</v>
       </c>
     </row>
     <row r="17">
@@ -8178,19 +8178,19 @@
         <v>27054</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>18225</v>
+        <v>17824</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>39623</v>
+        <v>39650</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05211695118852803</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0351084825128283</v>
+        <v>0.03433636437333645</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07632884680370408</v>
+        <v>0.07638205579633306</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -8202,7 +8202,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7146</v>
+        <v>7052</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01171188629002091</v>
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0430182002656849</v>
+        <v>0.04245159687880239</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>27</v>
@@ -8220,19 +8220,19 @@
         <v>29000</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>19484</v>
+        <v>19726</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>42019</v>
+        <v>42405</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04232140143652451</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02843461790870451</v>
+        <v>0.02878697530707361</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06132174211465001</v>
+        <v>0.06188372045119734</v>
       </c>
     </row>
     <row r="18">
@@ -8249,19 +8249,19 @@
         <v>67043</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>52751</v>
+        <v>52305</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>83756</v>
+        <v>83830</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1291504482819112</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1016186085895155</v>
+        <v>0.1007603267575135</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1613457195107193</v>
+        <v>0.1614879706409094</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>19</v>
@@ -8270,19 +8270,19 @@
         <v>19967</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>12387</v>
+        <v>12932</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>30317</v>
+        <v>30271</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1201917448114453</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.07456678420855575</v>
+        <v>0.0778441770804463</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1824991303919855</v>
+        <v>0.1822200412824701</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>82</v>
@@ -8291,19 +8291,19 @@
         <v>87010</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>70289</v>
+        <v>70252</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>104553</v>
+        <v>107379</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1269785565703442</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1025776661265209</v>
+        <v>0.1025235812074637</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1525808673270614</v>
+        <v>0.1567055675022081</v>
       </c>
     </row>
     <row r="19">
@@ -8320,19 +8320,19 @@
         <v>150835</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>130157</v>
+        <v>131594</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>172473</v>
+        <v>171894</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2905658544098574</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2507323544446389</v>
+        <v>0.2534998147675495</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3322498907542373</v>
+        <v>0.3311331315653035</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>40</v>
@@ -8341,19 +8341,19 @@
         <v>42323</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>31815</v>
+        <v>32859</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>55667</v>
+        <v>55298</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2547678559395437</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1915129309227663</v>
+        <v>0.1978009917242866</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3350927702243779</v>
+        <v>0.3328732695834901</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>185</v>
@@ -8362,19 +8362,19 @@
         <v>193158</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>170613</v>
+        <v>171012</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>217001</v>
+        <v>217202</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2818872128603654</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2489862465684355</v>
+        <v>0.2495692776373567</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3166834774380664</v>
+        <v>0.3169764579547452</v>
       </c>
     </row>
     <row r="20">
@@ -8391,19 +8391,19 @@
         <v>258572</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>234520</v>
+        <v>236116</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>280440</v>
+        <v>283591</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4981099622413728</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4517756537449896</v>
+        <v>0.4548506666372024</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5402347486078323</v>
+        <v>0.546306297986456</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>89</v>
@@ -8412,19 +8412,19 @@
         <v>98998</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>84915</v>
+        <v>86124</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>111088</v>
+        <v>109958</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5959334925854823</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5111572875030798</v>
+        <v>0.5184368177318239</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6687117919430714</v>
+        <v>0.6619079878165662</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>341</v>
@@ -8433,19 +8433,19 @@
         <v>357571</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>331845</v>
+        <v>330397</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>383477</v>
+        <v>383024</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5218256835453561</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4842831721875226</v>
+        <v>0.4821701406768959</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5596329423822866</v>
+        <v>0.5589714976527467</v>
       </c>
     </row>
     <row r="21">
@@ -8537,19 +8537,19 @@
         <v>22580</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>14114</v>
+        <v>14617</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>34850</v>
+        <v>34120</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01967714222539</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01229940522272695</v>
+        <v>0.01273796150145988</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03036962811045673</v>
+        <v>0.02973320083416265</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>22</v>
@@ -8558,19 +8558,19 @@
         <v>23028</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>14661</v>
+        <v>15452</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>34017</v>
+        <v>35761</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02791751997054482</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01777422115888356</v>
+        <v>0.01873308882368373</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04123934968573568</v>
+        <v>0.04335380016245622</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>43</v>
@@ -8579,19 +8579,19 @@
         <v>45608</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>34719</v>
+        <v>33998</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>62171</v>
+        <v>60222</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02312330433586277</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01760270584579843</v>
+        <v>0.0172370840594969</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03152070252123819</v>
+        <v>0.03053239432431534</v>
       </c>
     </row>
     <row r="23">
@@ -8608,19 +8608,19 @@
         <v>43911</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>31537</v>
+        <v>32710</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>59181</v>
+        <v>58288</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03826583677768341</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02748219137127926</v>
+        <v>0.02850470778581341</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05157249226041256</v>
+        <v>0.05079452243489707</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>35</v>
@@ -8629,19 +8629,19 @@
         <v>37503</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>25548</v>
+        <v>26058</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>52026</v>
+        <v>50886</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.04546630649876807</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03097211332486502</v>
+        <v>0.03159106726186334</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.06307195328322465</v>
+        <v>0.06169039510135129</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>76</v>
@@ -8650,19 +8650,19 @@
         <v>81415</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>64690</v>
+        <v>63936</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>100420</v>
+        <v>101944</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.04127710479206522</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03279765370800201</v>
+        <v>0.03241557657680493</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.05091284083273288</v>
+        <v>0.05168556133603975</v>
       </c>
     </row>
     <row r="24">
@@ -8679,19 +8679,19 @@
         <v>155609</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>133957</v>
+        <v>133219</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>180057</v>
+        <v>180738</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1356032254363356</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1167349267102307</v>
+        <v>0.1160922252426976</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1569081235227108</v>
+        <v>0.1575018741065782</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>112</v>
@@ -8700,19 +8700,19 @@
         <v>115413</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>96463</v>
+        <v>97551</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>135479</v>
+        <v>138480</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1399176679626123</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1169443117946034</v>
+        <v>0.1182637185530278</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1642438669214278</v>
+        <v>0.1678828475319466</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>259</v>
@@ -8721,19 +8721,19 @@
         <v>271022</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>240115</v>
+        <v>239547</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>303484</v>
+        <v>301570</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1374075442214313</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1217380939843349</v>
+        <v>0.1214501647793687</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1538658674417112</v>
+        <v>0.152895578849159</v>
       </c>
     </row>
     <row r="25">
@@ -8750,19 +8750,19 @@
         <v>361893</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>331467</v>
+        <v>331951</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>396772</v>
+        <v>393835</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3153668640208226</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.288852312780434</v>
+        <v>0.2892746774659503</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3457619130653123</v>
+        <v>0.3432026918129085</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>240</v>
@@ -8771,19 +8771,19 @@
         <v>241307</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>215281</v>
+        <v>216600</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>267357</v>
+        <v>266820</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2925420963447982</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2609900552927359</v>
+        <v>0.2625890177780397</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.324123356260371</v>
+        <v>0.3234720078726449</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>590</v>
@@ -8792,19 +8792,19 @@
         <v>603200</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>561352</v>
+        <v>560591</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>643780</v>
+        <v>643104</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3058214460827059</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2846043156509599</v>
+        <v>0.2842187850059867</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3263953237178951</v>
+        <v>0.3260525861306827</v>
       </c>
     </row>
     <row r="26">
@@ -8821,19 +8821,19 @@
         <v>563537</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>527736</v>
+        <v>530927</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>596887</v>
+        <v>598064</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4910869315397683</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4598883291281129</v>
+        <v>0.4626692786139149</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5201494561001461</v>
+        <v>0.5211746628235354</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>388</v>
@@ -8842,19 +8842,19 @@
         <v>407611</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>378035</v>
+        <v>376189</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>439771</v>
+        <v>435381</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4941564092232766</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4582998352920054</v>
+        <v>0.4560626251805568</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5331438777049844</v>
+        <v>0.5278221044395752</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>930</v>
@@ -8863,19 +8863,19 @@
         <v>971148</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>926492</v>
+        <v>923341</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1018120</v>
+        <v>1015208</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4923706005679349</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4697301458265877</v>
+        <v>0.4681321335697248</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5161852649853075</v>
+        <v>0.5147085727346483</v>
       </c>
     </row>
     <row r="27">
@@ -8967,19 +8967,19 @@
         <v>17604</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>9796</v>
+        <v>9620</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>29961</v>
+        <v>28915</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0283610362745947</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01578170888963095</v>
+        <v>0.01549825795135536</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04826900149076668</v>
+        <v>0.04658395814413713</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>15</v>
@@ -8988,19 +8988,19 @@
         <v>14925</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>8580</v>
+        <v>8800</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>24027</v>
+        <v>24120</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02024585350927304</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01163855534322149</v>
+        <v>0.01193762366766835</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03259426862224307</v>
+        <v>0.03271981889070363</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>30</v>
@@ -9009,19 +9009,19 @@
         <v>32528</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>22350</v>
+        <v>22742</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>46676</v>
+        <v>46503</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02395544059620947</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01645947465665706</v>
+        <v>0.01674812783785123</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0343744003874559</v>
+        <v>0.03424725677576095</v>
       </c>
     </row>
     <row r="29">
@@ -9038,19 +9038,19 @@
         <v>22421</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>14937</v>
+        <v>14052</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>33985</v>
+        <v>33622</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03612139840426164</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02406391826735098</v>
+        <v>0.02263910251977481</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05475268105892749</v>
+        <v>0.05416758054167996</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>21</v>
@@ -9059,19 +9059,19 @@
         <v>21412</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>13419</v>
+        <v>13709</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>31654</v>
+        <v>32124</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02904573642085592</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01820341570878857</v>
+        <v>0.01859626550102997</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04294010179942712</v>
+        <v>0.04357721828975558</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>42</v>
@@ -9080,19 +9080,19 @@
         <v>43832</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>32567</v>
+        <v>31247</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>59046</v>
+        <v>58356</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03228014100350225</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02398418956052892</v>
+        <v>0.02301182428368422</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04348427960422296</v>
+        <v>0.04297585741832756</v>
       </c>
     </row>
     <row r="30">
@@ -9109,19 +9109,19 @@
         <v>82969</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>66532</v>
+        <v>65895</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>101818</v>
+        <v>101879</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1336683977461341</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.107187564967737</v>
+        <v>0.1061620235378049</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1640364116176223</v>
+        <v>0.1641347224595731</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>69</v>
@@ -9130,19 +9130,19 @@
         <v>72128</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>57352</v>
+        <v>58085</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>91365</v>
+        <v>90188</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.09784487445161544</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.077800740166974</v>
+        <v>0.0787947997248073</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1239415190825645</v>
+        <v>0.122344456525483</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>145</v>
@@ -9151,19 +9151,19 @@
         <v>155097</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>132122</v>
+        <v>131940</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>180886</v>
+        <v>180596</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1142204119182255</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.09730054593143653</v>
+        <v>0.09716684346411925</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1332128271377807</v>
+        <v>0.1329996302779834</v>
       </c>
     </row>
     <row r="31">
@@ -9180,19 +9180,19 @@
         <v>189821</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>167394</v>
+        <v>166371</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>216109</v>
+        <v>211917</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3058139400389762</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2696826539869347</v>
+        <v>0.268035571952466</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3481670685423647</v>
+        <v>0.3414129805575072</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>218</v>
@@ -9201,19 +9201,19 @@
         <v>227948</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>201684</v>
+        <v>203458</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>255144</v>
+        <v>254439</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3092228450141821</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2735941569989184</v>
+        <v>0.276000396768124</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3461151694380855</v>
+        <v>0.3451589907624935</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>404</v>
@@ -9222,19 +9222,19 @@
         <v>417769</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>385054</v>
+        <v>384496</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>454739</v>
+        <v>451496</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.307664576982234</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2835717316590994</v>
+        <v>0.2831605855054301</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3348909528390008</v>
+        <v>0.3325031294506654</v>
       </c>
     </row>
     <row r="32">
@@ -9251,19 +9251,19 @@
         <v>307892</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>282873</v>
+        <v>283544</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>334088</v>
+        <v>334324</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4960352275360332</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.455727344637009</v>
+        <v>0.4568095970804348</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5382389826132855</v>
+        <v>0.5386191747620293</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>375</v>
@@ -9272,19 +9272,19 @@
         <v>400753</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>373513</v>
+        <v>373181</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>429583</v>
+        <v>428732</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.5436406906040735</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.5066889049299976</v>
+        <v>0.5062381841903422</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5827505957220718</v>
+        <v>0.5815962216127976</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>674</v>
@@ -9293,19 +9293,19 @@
         <v>708645</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>665593</v>
+        <v>673922</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>744525</v>
+        <v>746380</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5218794294998288</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4901740152282226</v>
+        <v>0.4963077209452419</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5483033172030897</v>
+        <v>0.5496691153168537</v>
       </c>
     </row>
     <row r="33">
@@ -9397,19 +9397,19 @@
         <v>12336</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>6448</v>
+        <v>7133</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>20127</v>
+        <v>20437</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.04311033091115733</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02253257774073256</v>
+        <v>0.0249274664405669</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.07033617381843979</v>
+        <v>0.07141688147397647</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>18</v>
@@ -9418,19 +9418,19 @@
         <v>18729</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>11598</v>
+        <v>11676</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>29048</v>
+        <v>29076</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01732506453149293</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01072907874779838</v>
+        <v>0.01080113448959157</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02687030967562067</v>
+        <v>0.02689626175487289</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>30</v>
@@ -9439,19 +9439,19 @@
         <v>31065</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>21620</v>
+        <v>21273</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>44281</v>
+        <v>43596</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02272203356214036</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01581373352150265</v>
+        <v>0.01555996576469425</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.03238856724771496</v>
+        <v>0.03188762262600205</v>
       </c>
     </row>
     <row r="35">
@@ -9468,19 +9468,19 @@
         <v>17040</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>10266</v>
+        <v>10180</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>26576</v>
+        <v>27456</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.05954593215258727</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.03587614140875706</v>
+        <v>0.03557487979932736</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.09287185581893243</v>
+        <v>0.09594572854388431</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>39</v>
@@ -9489,19 +9489,19 @@
         <v>40081</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>28840</v>
+        <v>29100</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>53822</v>
+        <v>54429</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.03707649439489366</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.02667813165812274</v>
+        <v>0.02691862161777439</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.04978731434304788</v>
+        <v>0.05034911309431923</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>55</v>
@@ -9510,19 +9510,19 @@
         <v>57120</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>43992</v>
+        <v>42997</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>75086</v>
+        <v>72612</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.04177944599247614</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03217702720546198</v>
+        <v>0.03144937453161242</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.05492036544420845</v>
+        <v>0.0531104837762307</v>
       </c>
     </row>
     <row r="36">
@@ -9539,19 +9539,19 @@
         <v>55953</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>42016</v>
+        <v>43446</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>69579</v>
+        <v>71468</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1955304338449083</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1468280214006258</v>
+        <v>0.1518267863512985</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2431504388383713</v>
+        <v>0.2497512834898083</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>96</v>
@@ -9560,19 +9560,19 @@
         <v>100529</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>82491</v>
+        <v>81866</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>121321</v>
+        <v>121236</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.09299365079630048</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.07630785368115127</v>
+        <v>0.07572970772824889</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1122274899670636</v>
+        <v>0.1121486540690752</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>149</v>
@@ -9581,19 +9581,19 @@
         <v>156481</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>134085</v>
+        <v>132985</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>182996</v>
+        <v>180267</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.11445504795495</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.09807375960948882</v>
+        <v>0.09726924427407563</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1338487949461536</v>
+        <v>0.1318521906500106</v>
       </c>
     </row>
     <row r="37">
@@ -9610,19 +9610,19 @@
         <v>91415</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>76796</v>
+        <v>75920</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>108815</v>
+        <v>108437</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3194580276452091</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.268368254550136</v>
+        <v>0.2653068736595447</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3802636205438265</v>
+        <v>0.3789423138004194</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>255</v>
@@ -9631,19 +9631,19 @@
         <v>273729</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>243953</v>
+        <v>246522</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>302653</v>
+        <v>304599</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2532115264110518</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2256674143296352</v>
+        <v>0.2280437570371607</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2799671361544781</v>
+        <v>0.2817677493996667</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>343</v>
@@ -9652,19 +9652,19 @@
         <v>365144</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>333739</v>
+        <v>334099</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>401532</v>
+        <v>400168</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2670772088626188</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2441060126587269</v>
+        <v>0.2443694472129584</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2936920059383498</v>
+        <v>0.29269440300942</v>
       </c>
     </row>
     <row r="38">
@@ -9681,19 +9681,19 @@
         <v>109414</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>91433</v>
+        <v>94861</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>126907</v>
+        <v>127126</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.3823552754461381</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3195188532326463</v>
+        <v>0.3314972227821664</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.443487034004249</v>
+        <v>0.4442517719034709</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>583</v>
@@ -9702,19 +9702,19 @@
         <v>647962</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>614116</v>
+        <v>613918</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>681978</v>
+        <v>680815</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.5993932638662611</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.5680847929037797</v>
+        <v>0.5679010861353514</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.6308599911119365</v>
+        <v>0.6297842239588024</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>685</v>
@@ -9723,19 +9723,19 @@
         <v>757375</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>719885</v>
+        <v>724360</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>794048</v>
+        <v>798510</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.5539662636278146</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.5265446545483767</v>
+        <v>0.5298181134520816</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.580789820551932</v>
+        <v>0.5840535253921888</v>
       </c>
     </row>
     <row r="39">
@@ -9827,19 +9827,19 @@
         <v>85386</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>66961</v>
+        <v>66757</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>105665</v>
+        <v>106609</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.02527020641955635</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.01981725185013656</v>
+        <v>0.01975702869969855</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.03127181021056705</v>
+        <v>0.03155109039038224</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>70</v>
@@ -9848,19 +9848,19 @@
         <v>71497</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>55768</v>
+        <v>56717</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>89065</v>
+        <v>90707</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.02027855934736654</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.01581741021060233</v>
+        <v>0.0160865423693994</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.02526107454430122</v>
+        <v>0.02572685042181204</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>149</v>
@@ -9869,19 +9869,19 @@
         <v>156884</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>131620</v>
+        <v>133442</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>186316</v>
+        <v>184884</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.02272130342060776</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.01906239158497467</v>
+        <v>0.01932627898964783</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.02698396579389474</v>
+        <v>0.02677666198023786</v>
       </c>
     </row>
     <row r="41">
@@ -9898,19 +9898,19 @@
         <v>129441</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>109977</v>
+        <v>107419</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>155835</v>
+        <v>152571</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.0383082902118589</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.03254799404904266</v>
+        <v>0.03179080461192228</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.0461198719159655</v>
+        <v>0.0451536955241917</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>111</v>
@@ -9919,19 +9919,19 @@
         <v>115076</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>94630</v>
+        <v>95569</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>137272</v>
+        <v>136889</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.03263853616207872</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.02683950714117179</v>
+        <v>0.02710577467456534</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.03893403770946438</v>
+        <v>0.03882520524302954</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>232</v>
@@ -9940,19 +9940,19 @@
         <v>244517</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>214896</v>
+        <v>216240</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>277649</v>
+        <v>277681</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.035413122967103</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.0311231607267007</v>
+        <v>0.03131778706428624</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.04021168793120948</v>
+        <v>0.04021627004949957</v>
       </c>
     </row>
     <row r="42">
@@ -9969,19 +9969,19 @@
         <v>458446</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>421360</v>
+        <v>420779</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>501617</v>
+        <v>500613</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1356782570613282</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1247025526907913</v>
+        <v>0.1245305542947073</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.148454787491064</v>
+        <v>0.148157615138815</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>385</v>
@@ -9990,19 +9990,19 @@
         <v>400380</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>365380</v>
+        <v>365297</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>443337</v>
+        <v>437898</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1135583585101346</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1036312451516308</v>
+        <v>0.103607805782904</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1257420756882521</v>
+        <v>0.1241994886430906</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>810</v>
@@ -10011,19 +10011,19 @@
         <v>858826</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>805935</v>
+        <v>802336</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>912753</v>
+        <v>918674</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1243830923715614</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1167228973436763</v>
+        <v>0.1162017020321948</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1321931728661576</v>
+        <v>0.1330507228510705</v>
       </c>
     </row>
     <row r="43">
@@ -10040,19 +10040,19 @@
         <v>1005839</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>950798</v>
+        <v>952567</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>1059705</v>
+        <v>1063981</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.297680381446764</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2813908010570608</v>
+        <v>0.2819145131638965</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.3136221605166235</v>
+        <v>0.3148878204108964</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>933</v>
@@ -10061,19 +10061,19 @@
         <v>972744</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>912047</v>
+        <v>920268</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>1024111</v>
+        <v>1027642</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.2758957576970237</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.258680638725687</v>
+        <v>0.2610121703942593</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.290464793529858</v>
+        <v>0.2914663601328259</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>1902</v>
@@ -10082,19 +10082,19 @@
         <v>1978583</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>1905206</v>
+        <v>1897165</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>2053983</v>
+        <v>2052878</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2865564193549648</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2759293628057129</v>
+        <v>0.2747648261330609</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2974765691898412</v>
+        <v>0.2973166043837183</v>
       </c>
     </row>
     <row r="44">
@@ -10111,19 +10111,19 @@
         <v>1699810</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1634940</v>
+        <v>1638864</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>1757958</v>
+        <v>1756464</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.5030628648604927</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.4838643955924002</v>
+        <v>0.4850256544498374</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.5202717924477187</v>
+        <v>0.5198296233820001</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>1822</v>
@@ -10132,19 +10132,19 @@
         <v>1966069</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>1901337</v>
+        <v>1912319</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>2024880</v>
+        <v>2026702</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.5576287882833965</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.5392691722250927</v>
+        <v>0.5423841078545801</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.5743092255708782</v>
+        <v>0.5748259277320331</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>3446</v>
@@ -10153,19 +10153,19 @@
         <v>3665879</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>3588601</v>
+        <v>3591711</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>3751743</v>
+        <v>3757790</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.5309260618857631</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.5197339715016335</v>
+        <v>0.520184360611232</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.5433617458852421</v>
+        <v>0.5442375314272752</v>
       </c>
     </row>
     <row r="45">
